--- a/biology/Zoologie/Gaucelmus_augustinus/Gaucelmus_augustinus.xlsx
+++ b/biology/Zoologie/Gaucelmus_augustinus/Gaucelmus_augustinus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gaucelmus augustinus est une espèce d'araignées aranéomorphes de la famille des Synotaxidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gaucelmus augustinus est une espèce d'araignées aranéomorphes de la famille des Synotaxidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre aux États-Unis en Floride, en Géorgie, en Caroline du Sud, en Alabama, au Mississippi, en Louisiane et au Texas, au Mexique, au Guatemala, au Salvador, au Costa Rica, au Panama, aux Bahamas et à Porto Rico[1],[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre aux États-Unis en Floride, en Géorgie, en Caroline du Sud, en Alabama, au Mississippi, en Louisiane et au Texas, au Mexique, au Guatemala, au Salvador, au Costa Rica, au Panama, aux Bahamas et à Porto Rico.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette araignée est troglophile[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette araignée est troglophile.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 3,0 à 5,0 mm et les femelles de 4,0 à 9,0 mm[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 3,0 à 5,0 mm et les femelles de 4,0 à 9,0 mm.
 </t>
         </is>
       </c>
@@ -604,11 +622,13 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite par Keyserling en 1884. Elle est placée dans le genre Nesticus par Simon en 1895[4] puis dans le genre Gaucelmus par Gertsch en 1971[5].
-Theridion eigenmanni[6] a été placée en synonymie par Levi en 1957[7].
-Theridion santaanae[8] a été placé en synonymie par Gertsch en 1984[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite par Keyserling en 1884. Elle est placée dans le genre Nesticus par Simon en 1895 puis dans le genre Gaucelmus par Gertsch en 1971.
+Theridion eigenmanni a été placée en synonymie par Levi en 1957.
+Theridion santaanae a été placé en synonymie par Gertsch en 1984.
 </t>
         </is>
       </c>
@@ -637,7 +657,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, Saint Augustine.
 </t>
@@ -668,7 +690,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Keyserling, 1884 : Die Spinnen Amerikas II. Theridiidae. Nürnberg, vol. 1, p. 1-222  (texte intégral).</t>
         </is>
